--- a/ml/src/main/resources/luckybag/rosterlist-20210113.xlsx
+++ b/ml/src/main/resources/luckybag/rosterlist-20210113.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\NK_Utils\ml\src\main\resources\luckybag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA04E669-B350-4912-9FAB-A4EF10417F82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D05B26B-BC42-47E1-B766-9BCFB5EADA85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22365" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2996" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2998" uniqueCount="833">
   <si>
     <t>序号</t>
   </si>
@@ -2488,13 +2488,7 @@
     <t>夏子豪</t>
   </si>
   <si>
-    <t>18269712956</t>
-  </si>
-  <si>
     <t>黄兰兰</t>
-  </si>
-  <si>
-    <t>15956985081</t>
   </si>
   <si>
     <t>邹文敏</t>
@@ -2520,6 +2514,22 @@
   </si>
   <si>
     <t>总经办</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>15021597239</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>15956985081</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>18269712956</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>13665659447</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -2530,7 +2540,7 @@
   <numFmts count="1">
     <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2605,6 +2615,13 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -2720,7 +2737,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2904,13 +2921,25 @@
     <xf numFmtId="49" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5939,10 +5968,10 @@
   <dimension ref="A1:XDJ375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H127" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="I143" sqref="I143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5987,8 +6016,8 @@
       <c r="I1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="62" t="s">
-        <v>829</v>
+      <c r="J1" s="61" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6190,11 +6219,11 @@
       <c r="B8" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="63" t="s">
-        <v>830</v>
-      </c>
-      <c r="D8" s="63" t="s">
-        <v>830</v>
+      <c r="C8" s="62" t="s">
+        <v>828</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>828</v>
       </c>
       <c r="E8" s="27" t="s">
         <v>10</v>
@@ -7232,7 +7261,7 @@
       <c r="H40" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="I40" s="35">
+      <c r="I40" s="65">
         <v>13295516568</v>
       </c>
       <c r="J40" s="2">
@@ -10176,8 +10205,8 @@
       <c r="H132" s="44" t="s">
         <v>292</v>
       </c>
-      <c r="I132" s="44">
-        <v>15021597239</v>
+      <c r="I132" s="63" t="s">
+        <v>829</v>
       </c>
       <c r="J132" s="2">
         <v>10000</v>
@@ -12576,7 +12605,7 @@
       <c r="H207" s="35" t="s">
         <v>461</v>
       </c>
-      <c r="I207" s="35">
+      <c r="I207" s="65">
         <v>18655116915</v>
       </c>
       <c r="J207" s="2">
@@ -14560,7 +14589,7 @@
       <c r="H269" s="35" t="s">
         <v>597</v>
       </c>
-      <c r="I269" s="35">
+      <c r="I269" s="65">
         <v>15697169087</v>
       </c>
       <c r="J269" s="2">
@@ -15744,7 +15773,7 @@
       <c r="H306" s="54" t="s">
         <v>677</v>
       </c>
-      <c r="I306" s="61" t="s">
+      <c r="I306" s="66" t="s">
         <v>678</v>
       </c>
       <c r="J306" s="2">
@@ -17824,8 +17853,8 @@
       <c r="H371" s="25" t="s">
         <v>819</v>
       </c>
-      <c r="I371" s="37" t="s">
-        <v>820</v>
+      <c r="I371" s="64" t="s">
+        <v>831</v>
       </c>
       <c r="J371" s="2">
         <v>10000</v>
@@ -17854,10 +17883,10 @@
         <v>10</v>
       </c>
       <c r="H372" s="25" t="s">
-        <v>821</v>
-      </c>
-      <c r="I372" s="37" t="s">
-        <v>822</v>
+        <v>820</v>
+      </c>
+      <c r="I372" s="64" t="s">
+        <v>830</v>
       </c>
       <c r="J372" s="2">
         <v>10000</v>
@@ -17886,10 +17915,10 @@
         <v>10</v>
       </c>
       <c r="H373" s="25" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="I373" s="25" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="J373" s="2">
         <v>10000</v>
@@ -17906,22 +17935,22 @@
         <v>626</v>
       </c>
       <c r="D374" s="23" t="s">
+        <v>823</v>
+      </c>
+      <c r="E374" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F374" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G374" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H374" s="29" t="s">
+        <v>824</v>
+      </c>
+      <c r="I374" s="29" t="s">
         <v>825</v>
-      </c>
-      <c r="E374" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F374" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G374" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="H374" s="29" t="s">
-        <v>826</v>
-      </c>
-      <c r="I374" s="29" t="s">
-        <v>827</v>
       </c>
       <c r="J374" s="2">
         <v>10000</v>
@@ -17938,7 +17967,7 @@
         <v>626</v>
       </c>
       <c r="D375" s="23" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E375" s="23" t="s">
         <v>10</v>
@@ -17950,10 +17979,10 @@
         <v>10</v>
       </c>
       <c r="H375" s="35" t="s">
-        <v>828</v>
-      </c>
-      <c r="I375" s="35">
-        <v>13665659447</v>
+        <v>826</v>
+      </c>
+      <c r="I375" s="67" t="s">
+        <v>832</v>
       </c>
       <c r="J375" s="2">
         <v>10000</v>
